--- a/analysis_bisbasic_240326 (2).xlsx
+++ b/analysis_bisbasic_240326 (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eSyn\train_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\OneDrive\Documents\eSyn\new_brain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864BA104-9292-490D-A3E0-936E914720FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F0DC2-CC12-4E58-BDBA-268F69B2F619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CAB985-7A5F-465E-8DA5-50FA1055EDE1}"/>
+    <workbookView xWindow="-29040" yWindow="7965" windowWidth="29280" windowHeight="15960" xr2:uid="{31CAB985-7A5F-465E-8DA5-50FA1055EDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_analysis" sheetId="1" r:id="rId1"/>
@@ -5492,10 +5492,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Dålig" xfId="1" builtinId="27"/>
-    <cellStyle name="Hyperlänk" xfId="4" builtinId="8"/>
-    <cellStyle name="Indata" xfId="2" builtinId="20"/>
-    <cellStyle name="Kontrollcell" xfId="3" builtinId="23"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -6177,7 +6177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6500,26 +6500,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="78.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="63.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="18" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.28515625" customWidth="1"/>
-    <col min="20" max="41" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="4" width="13.83984375" customWidth="1"/>
+    <col min="5" max="5" width="78.15625" customWidth="1"/>
+    <col min="6" max="6" width="14.68359375" customWidth="1"/>
+    <col min="7" max="7" width="11.15625" customWidth="1"/>
+    <col min="8" max="8" width="19.83984375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="51.68359375" customWidth="1"/>
+    <col min="10" max="10" width="35.41796875" customWidth="1"/>
+    <col min="11" max="11" width="18.68359375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="63.578125" hidden="1" customWidth="1"/>
+    <col min="13" max="18" width="13.83984375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.26171875" customWidth="1"/>
+    <col min="20" max="41" width="13.83984375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -8062,9 +8062,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
+    <row r="15" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>58</v>
@@ -8175,7 +8175,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="3" t="s">
         <v>58</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="3" t="s">
         <v>39</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="3" t="s">
         <v>39</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
         <v>39</v>
       </c>
@@ -11853,7 +11853,7 @@
       <c r="AF52" s="8"/>
       <c r="AH52" s="8"/>
     </row>
-    <row r="53" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
         <v>39</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
         <v>39</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
         <v>39</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
         <v>39</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
@@ -12246,7 +12246,7 @@
       <c r="AF57" s="8"/>
       <c r="AH57" s="8"/>
     </row>
-    <row r="58" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
         <v>555</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
         <v>39</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
         <v>39</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="AF60" s="8"/>
       <c r="AH60" s="8"/>
     </row>
-    <row r="61" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A64" s="3" t="s">
         <v>39</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
         <v>58</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
         <v>39</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A68" s="3" t="s">
         <v>58</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
         <v>39</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="3" t="s">
         <v>39</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
         <v>58</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
         <v>58</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
         <v>39</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A74" s="3" t="s">
         <v>39</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A75" s="3" t="s">
         <v>58</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A76" s="3" t="s">
         <v>39</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
         <v>39</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
         <v>39</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
         <v>39</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
         <v>58</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
         <v>58</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
         <v>39</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A83" s="3" t="s">
         <v>39</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A84" s="3" t="s">
         <v>58</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A85" s="3" t="s">
         <v>39</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A86" s="3" t="s">
         <v>58</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="3" t="s">
         <v>58</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="3" t="s">
         <v>58</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="3" t="s">
         <v>39</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A90" s="3" t="s">
         <v>58</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A91" s="3" t="s">
         <v>58</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A92" s="3" t="s">
         <v>58</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A93" s="3" t="s">
         <v>39</v>
       </c>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="AO93" s="13"/>
     </row>
-    <row r="94" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A94" s="3" t="s">
         <v>58</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="3" t="s">
         <v>39</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A96" s="3" t="s">
         <v>58</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="97" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
         <v>39</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
         <v>39</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="3" t="s">
         <v>39</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A100" s="3" t="s">
         <v>39</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A101" s="3" t="s">
         <v>39</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="102" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
         <v>39</v>
       </c>
@@ -16838,7 +16838,7 @@
       <c r="AM102" s="35"/>
       <c r="AO102" s="31"/>
     </row>
-    <row r="103" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A103" s="3" t="s">
         <v>39</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A104" s="3" t="s">
         <v>39</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A105" s="3" t="s">
         <v>39</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A106" s="3" t="s">
         <v>58</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A108" s="3" t="s">
         <v>39</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A109" s="3" t="s">
         <v>58</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A110" s="3" t="s">
         <v>39</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A112" s="3" t="s">
         <v>39</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="113" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A113" s="3" t="s">
         <v>58</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A114" s="3" t="s">
         <v>39</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A115" s="3" t="s">
         <v>58</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="3" t="s">
         <v>39</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="3" t="s">
         <v>58</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="3" t="s">
         <v>39</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A120" s="3" t="s">
         <v>39</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A121" s="3" t="s">
         <v>39</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A122" s="3" t="s">
         <v>39</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="3" t="s">
         <v>58</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A124" s="3" t="s">
         <v>39</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A125" s="3" t="s">
         <v>39</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A126" s="3" t="s">
         <v>39</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A127" s="3" t="s">
         <v>39</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A128" s="3" t="s">
         <v>39</v>
       </c>
@@ -19553,7 +19553,7 @@
       </c>
       <c r="AM128" s="35"/>
     </row>
-    <row r="129" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A129" s="3" t="s">
         <v>39</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A130" s="3" t="s">
         <v>58</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A131" s="3" t="s">
         <v>39</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A132" s="3" t="s">
         <v>39</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A133" s="3" t="s">
         <v>39</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
         <v>39</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A135" s="3" t="s">
         <v>58</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A136" s="3" t="s">
         <v>39</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A137" s="40" t="s">
         <v>39</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A138" s="40" t="s">
         <v>39</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A139" s="40" t="s">
         <v>39</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A140" s="40" t="s">
         <v>58</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A141" s="40" t="s">
         <v>58</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A142" s="40" t="s">
         <v>39</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A143" s="40" t="s">
         <v>58</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A144" s="40" t="s">
         <v>58</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="145" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A145" s="40" t="s">
         <v>58</v>
       </c>
@@ -21309,7 +21309,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A146" s="40" t="s">
         <v>39</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A147" s="40" t="s">
         <v>39</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="148" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A148" s="40" t="s">
         <v>58</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A149" s="40" t="s">
         <v>58</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A150" s="40" t="s">
         <v>58</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A151" s="44" t="s">
         <v>58</v>
       </c>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="AO151" s="43"/>
     </row>
-    <row r="152" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A152" s="44" t="s">
         <v>39</v>
       </c>
@@ -22055,7 +22055,7 @@
       <c r="AN152" s="43"/>
       <c r="AO152" s="43"/>
     </row>
-    <row r="153" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A153" s="40" t="s">
         <v>58</v>
       </c>
@@ -22159,7 +22159,7 @@
       </c>
       <c r="AO153" s="43"/>
     </row>
-    <row r="154" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A154" s="40" t="s">
         <v>39</v>
       </c>
@@ -22262,7 +22262,7 @@
       <c r="AN154" s="43"/>
       <c r="AO154" s="43"/>
     </row>
-    <row r="155" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A155" s="40" t="s">
         <v>58</v>
       </c>
@@ -22366,7 +22366,7 @@
       </c>
       <c r="AO155" s="43"/>
     </row>
-    <row r="156" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A156" s="40" t="s">
         <v>39</v>
       </c>
@@ -22472,7 +22472,7 @@
       <c r="AN156" s="43"/>
       <c r="AO156" s="43"/>
     </row>
-    <row r="157" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A157" s="40" t="s">
         <v>39</v>
       </c>
@@ -22580,7 +22580,7 @@
       <c r="AN157" s="43"/>
       <c r="AO157" s="43"/>
     </row>
-    <row r="158" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A158" s="40" t="s">
         <v>58</v>
       </c>
@@ -22684,7 +22684,7 @@
       </c>
       <c r="AO158" s="43"/>
     </row>
-    <row r="159" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A159" s="40" t="s">
         <v>58</v>
       </c>
@@ -22788,7 +22788,7 @@
       </c>
       <c r="AO159" s="43"/>
     </row>
-    <row r="160" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A160" s="40" t="s">
         <v>39</v>
       </c>
@@ -22896,7 +22896,7 @@
       <c r="AN160" s="43"/>
       <c r="AO160" s="43"/>
     </row>
-    <row r="161" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A161" s="53" t="s">
         <v>39</v>
       </c>
@@ -23007,7 +23007,7 @@
       <c r="AN161" s="43"/>
       <c r="AO161" s="43"/>
     </row>
-    <row r="168" spans="1:41" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:41" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AG168" s="33"/>
       <c r="AH168" s="33"/>
       <c r="AI168" s="33"/>
@@ -23221,13 +23221,13 @@
       <selection activeCell="B25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="140.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="140.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="56" t="s">
         <v>1597</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="43" t="s">
         <v>1050</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="43" t="s">
         <v>244</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>1120</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>497</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="43" t="s">
         <v>338</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="43" t="s">
         <v>330</v>
       </c>
@@ -23283,7 +23283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="43" t="s">
         <v>528</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="43" t="s">
         <v>171</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="43" t="s">
         <v>804</v>
       </c>
@@ -23307,7 +23307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="43" t="s">
         <v>780</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>1234</v>
       </c>
@@ -23323,7 +23323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="43" t="s">
         <v>706</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="43" t="s">
         <v>1493</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="43" t="s">
         <v>1441</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="43" t="s">
         <v>1328</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="43" t="s">
         <v>728</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="43" t="s">
         <v>556</v>
       </c>
@@ -23371,7 +23371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="43" t="s">
         <v>142</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="43" t="s">
         <v>1203</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="43" t="s">
         <v>1094</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="43" t="s">
         <v>1257</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="43" t="s">
         <v>292</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="43" t="s">
         <v>998</v>
       </c>
@@ -23419,7 +23419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="43" t="s">
         <v>391</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="43" t="s">
         <v>220</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="43" t="s">
         <v>1261</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="43" t="s">
         <v>1315</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="43" t="s">
         <v>148</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="43" t="s">
         <v>1428</v>
       </c>
@@ -23467,7 +23467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="43" t="s">
         <v>369</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="43" t="s">
         <v>374</v>
       </c>
@@ -23483,7 +23483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="43" t="s">
         <v>949</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="43" t="s">
         <v>898</v>
       </c>
@@ -23499,7 +23499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="43" t="s">
         <v>1148</v>
       </c>
@@ -23507,7 +23507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="43" t="s">
         <v>240</v>
       </c>
@@ -23515,7 +23515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="43" t="s">
         <v>184</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="43" t="s">
         <v>433</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="43" t="s">
         <v>166</v>
       </c>
@@ -23539,12 +23539,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="43" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="43" t="s">
         <v>1599</v>
       </c>
@@ -23565,464 +23565,464 @@
       <selection sqref="A1:A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="55" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="55" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="5" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="55" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="43" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>1203</v>
       </c>

--- a/analysis_bisbasic_240326 (2).xlsx
+++ b/analysis_bisbasic_240326 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\OneDrive\Documents\eSyn\new_brain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2215B1-909A-4ED4-B8CD-6ECDB7CB4E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7733CE4B-856D-425F-9AF6-03B72FC2DBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8085" windowWidth="29040" windowHeight="15720" xr2:uid="{31CAB985-7A5F-465E-8DA5-50FA1055EDE1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{31CAB985-7A5F-465E-8DA5-50FA1055EDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_analysis" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4782" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="1624">
   <si>
     <t>STATUS</t>
   </si>
@@ -3311,9 +3310,6 @@
 </t>
   </si>
   <si>
-    <t>Client Atea</t>
-  </si>
-  <si>
     <t>SE731103667201</t>
   </si>
   <si>
@@ -3901,9 +3897,6 @@
     <t>75000 00</t>
   </si>
   <si>
-    <t>Christina Sverige AB</t>
-  </si>
-  <si>
     <t>SE556707106201</t>
   </si>
   <si>
@@ -5113,6 +5106,24 @@
   </si>
   <si>
     <t>Fronta Skellefteå AB</t>
+  </si>
+  <si>
+    <t>Tiger Strpes</t>
+  </si>
+  <si>
+    <t>Antins Sverige AB</t>
+  </si>
+  <si>
+    <t>Polarmatic Oy</t>
+  </si>
+  <si>
+    <t>Mobilcommunication i Östersund AB</t>
+  </si>
+  <si>
+    <t>Ingen faktura</t>
+  </si>
+  <si>
+    <t>skip</t>
   </si>
 </sst>
 </file>
@@ -5999,7 +6010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99569E4B-0DFA-4FF7-8534-9968EE2E9993}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99569E4B-0DFA-4FF7-8534-9968EE2E9993}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6512,9 +6523,9 @@
   </sheetPr>
   <dimension ref="A1:AO168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6541,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7321,7 +7332,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="57" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E8" t="s">
         <v>142</v>
@@ -7537,7 +7548,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="57" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E10" t="s">
         <v>166</v>
@@ -8078,7 +8089,7 @@
     </row>
     <row r="15" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="60" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>58</v>
@@ -8197,7 +8208,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E16" t="s">
         <v>166</v>
@@ -8510,7 +8521,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E19" t="s">
         <v>171</v>
@@ -8619,7 +8630,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="59" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E20" t="s">
         <v>171</v>
@@ -8941,7 +8952,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E23" t="s">
         <v>166</v>
@@ -9084,7 +9095,7 @@
         <v>47</v>
       </c>
       <c r="S24" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="T24" t="s">
         <v>47</v>
@@ -9363,7 +9374,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>329</v>
@@ -9464,7 +9475,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E28" t="s">
         <v>166</v>
@@ -9565,7 +9576,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E29" t="s">
         <v>337</v>
@@ -9878,7 +9889,7 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="57" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D32" t="s">
         <v>365</v>
@@ -10009,7 +10020,7 @@
         <v>47</v>
       </c>
       <c r="S33" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="T33" t="s">
         <v>47</v>
@@ -10072,7 +10083,7 @@
     </row>
     <row r="34" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="60" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B34" s="4"/>
       <c r="D34" t="s">
@@ -10190,7 +10201,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="59" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D35" t="s">
         <v>365</v>
@@ -10485,7 +10496,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="57" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D38" t="s">
         <v>365</v>
@@ -10687,7 +10698,7 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="57" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D40" t="s">
         <v>365</v>
@@ -10922,7 +10933,7 @@
         <v>47</v>
       </c>
       <c r="S42" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="T42" t="s">
         <v>47</v>
@@ -10989,7 +11000,7 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D43" t="s">
         <v>365</v>
@@ -11417,7 +11428,7 @@
         <v>45387</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="T47" t="s">
         <v>437</v>
@@ -11513,7 +11524,7 @@
         <v>66</v>
       </c>
       <c r="S48" s="13" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="T48" t="s">
         <v>448</v>
@@ -12427,7 +12438,7 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="57" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E60" t="s">
         <v>166</v>
@@ -14120,7 +14131,7 @@
         <v>39</v>
       </c>
       <c r="C77" s="57" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D77" t="s">
         <v>728</v>
@@ -14230,7 +14241,7 @@
         <v>724</v>
       </c>
       <c r="C78" s="57" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E78" t="s">
         <v>142</v>
@@ -16493,7 +16504,7 @@
         <v>58</v>
       </c>
       <c r="C99" s="57" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E99" t="s">
         <v>166</v>
@@ -17067,7 +17078,7 @@
         <v>58</v>
       </c>
       <c r="C105" s="57" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E105" t="s">
         <v>142</v>
@@ -17375,7 +17386,7 @@
         <v>39</v>
       </c>
       <c r="C108" s="57" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" t="s">
@@ -17592,7 +17603,7 @@
       <c r="H110" s="5">
         <v>45356.579833368058</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="12" t="s">
         <v>1048</v>
       </c>
       <c r="K110" t="s">
@@ -17617,31 +17628,31 @@
         <v>66</v>
       </c>
       <c r="S110" t="s">
+        <v>1618</v>
+      </c>
+      <c r="T110" t="s">
+        <v>47</v>
+      </c>
+      <c r="U110" t="s">
         <v>1050</v>
-      </c>
-      <c r="T110" t="s">
-        <v>47</v>
-      </c>
-      <c r="U110" t="s">
-        <v>1051</v>
       </c>
       <c r="V110" s="8">
         <v>391</v>
       </c>
       <c r="W110" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X110" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z110" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA110" t="s">
         <v>1052</v>
-      </c>
-      <c r="X110" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z110" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>1053</v>
       </c>
       <c r="AB110" t="s">
         <v>89</v>
@@ -17650,7 +17661,7 @@
         <v>90</v>
       </c>
       <c r="AD110" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AE110" t="s">
         <v>89</v>
@@ -17674,7 +17685,7 @@
         <v>56</v>
       </c>
       <c r="AL110" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AM110" t="s">
         <v>47</v>
@@ -17700,16 +17711,16 @@
         <v>45355.496540775464</v>
       </c>
       <c r="I111" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J111" t="s">
         <v>1055</v>
-      </c>
-      <c r="J111" t="s">
-        <v>1056</v>
       </c>
       <c r="K111" t="s">
         <v>151</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M111">
         <v>15671</v>
@@ -17727,31 +17738,31 @@
         <v>47</v>
       </c>
       <c r="S111" t="s">
+        <v>1057</v>
+      </c>
+      <c r="T111" t="s">
         <v>1058</v>
       </c>
-      <c r="T111" t="s">
+      <c r="U111" t="s">
         <v>1059</v>
       </c>
-      <c r="U111" t="s">
+      <c r="V111" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="V111" s="8" t="s">
+      <c r="W111" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="W111" s="9" t="s">
+      <c r="X111" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="X111" s="9" t="s">
+      <c r="Y111" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z111" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA111" t="s">
         <v>1063</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z111" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA111" t="s">
-        <v>1064</v>
       </c>
       <c r="AB111" t="s">
         <v>54</v>
@@ -17769,22 +17780,22 @@
         <v>47</v>
       </c>
       <c r="AG111" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AH111" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI111" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AJ111" t="s">
         <v>56</v>
       </c>
       <c r="AK111" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AL111" t="s">
         <v>1066</v>
-      </c>
-      <c r="AL111" t="s">
-        <v>1067</v>
       </c>
       <c r="AM111" t="s">
         <v>47</v>
@@ -17813,16 +17824,16 @@
         <v>45355.496568796298</v>
       </c>
       <c r="I112" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J112" s="12" t="s">
         <v>1068</v>
-      </c>
-      <c r="J112" s="12" t="s">
-        <v>1069</v>
       </c>
       <c r="K112" t="s">
         <v>151</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M112">
         <v>24019</v>
@@ -17837,25 +17848,25 @@
         <v>45385</v>
       </c>
       <c r="S112" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T112" t="s">
         <v>1071</v>
       </c>
-      <c r="T112" t="s">
+      <c r="U112" t="s">
         <v>1072</v>
       </c>
-      <c r="U112" t="s">
+      <c r="V112" s="8" t="s">
         <v>1073</v>
-      </c>
-      <c r="V112" s="8" t="s">
-        <v>1074</v>
       </c>
       <c r="X112">
         <v>94754.52</v>
       </c>
       <c r="Z112" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AA112" t="s">
         <v>1075</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>1076</v>
       </c>
       <c r="AB112" t="s">
         <v>54</v>
@@ -17877,7 +17888,7 @@
         <v>56</v>
       </c>
       <c r="AL112" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -17894,16 +17905,16 @@
         <v>45355.496599050923</v>
       </c>
       <c r="I113" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J113" s="12" t="s">
         <v>1078</v>
-      </c>
-      <c r="J113" s="12" t="s">
-        <v>1079</v>
       </c>
       <c r="K113" t="s">
         <v>62</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M113">
         <v>1888</v>
@@ -17921,31 +17932,31 @@
         <v>66</v>
       </c>
       <c r="S113" t="s">
+        <v>1080</v>
+      </c>
+      <c r="T113" t="s">
         <v>1081</v>
       </c>
-      <c r="T113" t="s">
+      <c r="U113" t="s">
         <v>1082</v>
       </c>
-      <c r="U113" t="s">
+      <c r="V113" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="V113" s="8" t="s">
+      <c r="W113" t="s">
         <v>1084</v>
       </c>
-      <c r="W113" t="s">
+      <c r="X113" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z113" s="8" t="s">
         <v>1085</v>
       </c>
-      <c r="X113" t="s">
-        <v>1085</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z113" s="8" t="s">
+      <c r="AA113" t="s">
         <v>1086</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>1087</v>
       </c>
       <c r="AB113" t="s">
         <v>54</v>
@@ -17963,22 +17974,22 @@
         <v>47</v>
       </c>
       <c r="AG113" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AH113" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI113" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AJ113" t="s">
         <v>56</v>
       </c>
       <c r="AK113" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AL113" t="s">
         <v>1089</v>
-      </c>
-      <c r="AL113" t="s">
-        <v>1090</v>
       </c>
       <c r="AM113" t="s">
         <v>548</v>
@@ -17998,7 +18009,7 @@
         <v>650</v>
       </c>
       <c r="E114" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G114" t="s">
         <v>40</v>
@@ -18007,16 +18018,16 @@
         <v>45355.496629583336</v>
       </c>
       <c r="I114" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J114" s="12" t="s">
         <v>1092</v>
-      </c>
-      <c r="J114" s="12" t="s">
-        <v>1093</v>
       </c>
       <c r="K114" t="s">
         <v>145</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
@@ -18101,16 +18112,16 @@
         <v>45355.496654155089</v>
       </c>
       <c r="I115" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J115" s="12" t="s">
         <v>1095</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>1096</v>
       </c>
       <c r="K115" t="s">
         <v>62</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M115">
         <v>2256</v>
@@ -18128,16 +18139,16 @@
         <v>66</v>
       </c>
       <c r="S115" t="s">
+        <v>1096</v>
+      </c>
+      <c r="T115" t="s">
         <v>1097</v>
       </c>
-      <c r="T115" t="s">
+      <c r="U115" t="s">
+        <v>47</v>
+      </c>
+      <c r="V115" s="8" t="s">
         <v>1098</v>
-      </c>
-      <c r="U115" t="s">
-        <v>47</v>
-      </c>
-      <c r="V115" s="8" t="s">
-        <v>1099</v>
       </c>
       <c r="W115" t="s">
         <v>759</v>
@@ -18149,10 +18160,10 @@
         <v>47</v>
       </c>
       <c r="Z115" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AA115" t="s">
         <v>1100</v>
-      </c>
-      <c r="AA115" t="s">
-        <v>1101</v>
       </c>
       <c r="AB115" t="s">
         <v>54</v>
@@ -18161,7 +18172,7 @@
         <v>47</v>
       </c>
       <c r="AD115" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AE115" t="s">
         <v>89</v>
@@ -18182,7 +18193,7 @@
         <v>56</v>
       </c>
       <c r="AK115" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AL115" t="s">
         <v>508</v>
@@ -18202,7 +18213,7 @@
         <v>58</v>
       </c>
       <c r="E116" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -18211,16 +18222,16 @@
         <v>45355.296045636576</v>
       </c>
       <c r="I116" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J116" s="12" t="s">
         <v>1104</v>
-      </c>
-      <c r="J116" s="12" t="s">
-        <v>1105</v>
       </c>
       <c r="K116" t="s">
         <v>145</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="M116" t="s">
         <v>47</v>
@@ -18306,10 +18317,10 @@
         <v>45355.296085347225</v>
       </c>
       <c r="I117" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J117" s="12" t="s">
         <v>1107</v>
-      </c>
-      <c r="J117" s="12" t="s">
-        <v>1108</v>
       </c>
       <c r="K117" t="s">
         <v>62</v>
@@ -18318,7 +18329,7 @@
         <v>1037</v>
       </c>
       <c r="M117" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O117">
         <v>380</v>
@@ -18333,29 +18344,29 @@
         <v>47</v>
       </c>
       <c r="S117" t="s">
+        <v>1109</v>
+      </c>
+      <c r="T117" t="s">
+        <v>47</v>
+      </c>
+      <c r="U117" t="s">
         <v>1110</v>
-      </c>
-      <c r="T117" t="s">
-        <v>47</v>
-      </c>
-      <c r="U117" t="s">
-        <v>1111</v>
       </c>
       <c r="V117" s="25"/>
       <c r="W117" t="s">
         <v>47</v>
       </c>
       <c r="X117" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z117" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA117" t="s">
         <v>1112</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z117" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>1113</v>
       </c>
       <c r="AB117" t="s">
         <v>54</v>
@@ -18373,22 +18384,22 @@
         <v>47</v>
       </c>
       <c r="AG117" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AH117" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI117" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK117" t="s">
         <v>1114</v>
       </c>
-      <c r="AJ117" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK117" t="s">
+      <c r="AL117" t="s">
         <v>1115</v>
-      </c>
-      <c r="AL117" t="s">
-        <v>1116</v>
       </c>
       <c r="AM117" t="s">
         <v>110</v>
@@ -18408,7 +18419,7 @@
         <v>650</v>
       </c>
       <c r="E118" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G118" t="s">
         <v>40</v>
@@ -18417,10 +18428,10 @@
         <v>45355.296117673613</v>
       </c>
       <c r="I118" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J118" s="12" t="s">
         <v>1118</v>
-      </c>
-      <c r="J118" s="12" t="s">
-        <v>1119</v>
       </c>
       <c r="K118" t="s">
         <v>62</v>
@@ -18429,7 +18440,7 @@
         <v>1037</v>
       </c>
       <c r="M118" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="O118">
         <v>380</v>
@@ -18444,13 +18455,13 @@
         <v>47</v>
       </c>
       <c r="S118" s="24" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T118" t="s">
+        <v>47</v>
+      </c>
+      <c r="U118" t="s">
         <v>1121</v>
-      </c>
-      <c r="T118" t="s">
-        <v>47</v>
-      </c>
-      <c r="U118" t="s">
-        <v>1122</v>
       </c>
       <c r="V118" s="8">
         <v>48444</v>
@@ -18465,10 +18476,10 @@
         <v>47</v>
       </c>
       <c r="Z118" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AA118" t="s">
         <v>1123</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>1124</v>
       </c>
       <c r="AB118" t="s">
         <v>54</v>
@@ -18486,22 +18497,22 @@
         <v>47</v>
       </c>
       <c r="AG118" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AH118" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI118" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AJ118" t="s">
         <v>56</v>
       </c>
       <c r="AK118" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AL118" t="s">
         <v>1126</v>
-      </c>
-      <c r="AL118" t="s">
-        <v>1127</v>
       </c>
       <c r="AM118" t="s">
         <v>47</v>
@@ -18521,10 +18532,10 @@
         <v>45355.296188935186</v>
       </c>
       <c r="I119" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J119" t="s">
         <v>1128</v>
-      </c>
-      <c r="J119" t="s">
-        <v>1129</v>
       </c>
       <c r="K119" t="s">
         <v>62</v>
@@ -18533,7 +18544,7 @@
         <v>1037</v>
       </c>
       <c r="M119" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O119">
         <v>380</v>
@@ -18548,13 +18559,13 @@
         <v>47</v>
       </c>
       <c r="S119" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T119" t="s">
         <v>1131</v>
       </c>
-      <c r="T119" t="s">
+      <c r="U119" t="s">
         <v>1132</v>
-      </c>
-      <c r="U119" t="s">
-        <v>1133</v>
       </c>
       <c r="V119" s="8">
         <v>5561839191</v>
@@ -18563,16 +18574,16 @@
         <v>872</v>
       </c>
       <c r="X119" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Y119" t="s">
         <v>1134</v>
       </c>
-      <c r="Y119" t="s">
+      <c r="Z119" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="Z119" s="8" t="s">
+      <c r="AA119" t="s">
         <v>1136</v>
-      </c>
-      <c r="AA119" t="s">
-        <v>1137</v>
       </c>
       <c r="AB119" t="s">
         <v>54</v>
@@ -18602,10 +18613,10 @@
         <v>123</v>
       </c>
       <c r="AK119" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AL119" t="s">
         <v>1138</v>
-      </c>
-      <c r="AL119" t="s">
-        <v>1139</v>
       </c>
       <c r="AM119" t="s">
         <v>123</v>
@@ -18622,10 +18633,10 @@
         <v>39</v>
       </c>
       <c r="C120" s="57" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D120" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E120" t="s">
         <v>292</v>
@@ -18634,16 +18645,16 @@
         <v>45355.296224039354</v>
       </c>
       <c r="I120" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J120" s="12" t="s">
         <v>1141</v>
-      </c>
-      <c r="J120" s="12" t="s">
-        <v>1142</v>
       </c>
       <c r="K120" t="s">
         <v>43</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="M120" t="s">
         <v>952</v>
@@ -18679,7 +18690,7 @@
         <v>953</v>
       </c>
       <c r="Y120" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Z120" s="8" t="s">
         <v>47</v>
@@ -18732,7 +18743,7 @@
         <v>58</v>
       </c>
       <c r="E121" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F121" t="s">
         <v>40</v>
@@ -18744,10 +18755,10 @@
         <v>45355.296260752315</v>
       </c>
       <c r="I121" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J121" s="12" t="s">
         <v>1146</v>
-      </c>
-      <c r="J121" s="12" t="s">
-        <v>1147</v>
       </c>
       <c r="K121" t="s">
         <v>43</v>
@@ -18756,7 +18767,7 @@
         <v>127</v>
       </c>
       <c r="M121" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="O121">
         <v>380</v>
@@ -18771,13 +18782,13 @@
         <v>66</v>
       </c>
       <c r="S121" t="s">
+        <v>1148</v>
+      </c>
+      <c r="T121" t="s">
         <v>1149</v>
       </c>
-      <c r="T121" t="s">
+      <c r="U121" t="s">
         <v>1150</v>
-      </c>
-      <c r="U121" t="s">
-        <v>1151</v>
       </c>
       <c r="V121" s="8">
         <v>271055</v>
@@ -18786,16 +18797,16 @@
         <v>47</v>
       </c>
       <c r="X121" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z121" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="Y121" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z121" s="8" t="s">
+      <c r="AA121" t="s">
         <v>1153</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>1154</v>
       </c>
       <c r="AB121" t="s">
         <v>54</v>
@@ -18804,7 +18815,7 @@
         <v>47</v>
       </c>
       <c r="AD121" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AE121" t="s">
         <v>89</v>
@@ -18813,22 +18824,22 @@
         <v>679</v>
       </c>
       <c r="AG121" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AH121" s="8" t="s">
         <v>305</v>
       </c>
       <c r="AI121" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AJ121" t="s">
         <v>305</v>
       </c>
       <c r="AK121" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AL121" t="s">
         <v>1157</v>
-      </c>
-      <c r="AL121" t="s">
-        <v>1158</v>
       </c>
       <c r="AM121" s="24" t="s">
         <v>123</v>
@@ -18854,10 +18865,10 @@
         <v>45355.296302592593</v>
       </c>
       <c r="I122" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J122" s="12" t="s">
         <v>1159</v>
-      </c>
-      <c r="J122" s="12" t="s">
-        <v>1160</v>
       </c>
       <c r="K122" t="s">
         <v>43</v>
@@ -18866,7 +18877,7 @@
         <v>208</v>
       </c>
       <c r="M122" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O122">
         <v>380</v>
@@ -18881,13 +18892,13 @@
         <v>66</v>
       </c>
       <c r="S122" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T122" t="s">
         <v>1162</v>
       </c>
-      <c r="T122" t="s">
+      <c r="U122" t="s">
         <v>1163</v>
-      </c>
-      <c r="U122" t="s">
-        <v>1164</v>
       </c>
       <c r="V122" s="8">
         <v>84939</v>
@@ -18902,10 +18913,10 @@
         <v>47</v>
       </c>
       <c r="Z122" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AA122" t="s">
         <v>1165</v>
-      </c>
-      <c r="AA122" t="s">
-        <v>1166</v>
       </c>
       <c r="AB122" t="s">
         <v>54</v>
@@ -18914,7 +18925,7 @@
         <v>47</v>
       </c>
       <c r="AD122" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AE122" t="s">
         <v>89</v>
@@ -18923,22 +18934,22 @@
         <v>137</v>
       </c>
       <c r="AG122" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AH122" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI122" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AJ122" t="s">
         <v>123</v>
       </c>
       <c r="AK122" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AL122" s="24" t="s">
         <v>1169</v>
-      </c>
-      <c r="AL122" s="24" t="s">
-        <v>1170</v>
       </c>
       <c r="AM122" t="s">
         <v>110</v>
@@ -18958,19 +18969,19 @@
         <v>45355.296339155095</v>
       </c>
       <c r="I123" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J123" t="s">
         <v>1171</v>
-      </c>
-      <c r="J123" t="s">
-        <v>1172</v>
       </c>
       <c r="K123" t="s">
         <v>62</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M123" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O123">
         <v>380</v>
@@ -19065,10 +19076,10 @@
         <v>45355.296371412034</v>
       </c>
       <c r="I124" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J124" s="12" t="s">
         <v>1174</v>
-      </c>
-      <c r="J124" t="s">
-        <v>1175</v>
       </c>
       <c r="K124" t="s">
         <v>62</v>
@@ -19077,7 +19088,7 @@
         <v>1037</v>
       </c>
       <c r="M124" s="24" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="N124" s="24"/>
       <c r="O124">
@@ -19093,31 +19104,31 @@
         <v>47</v>
       </c>
       <c r="S124" t="s">
+        <v>1176</v>
+      </c>
+      <c r="T124" t="s">
+        <v>47</v>
+      </c>
+      <c r="U124" t="s">
         <v>1177</v>
-      </c>
-      <c r="T124" t="s">
-        <v>47</v>
-      </c>
-      <c r="U124" t="s">
-        <v>1178</v>
       </c>
       <c r="V124" s="8">
         <v>233056</v>
       </c>
       <c r="W124" t="s">
+        <v>1178</v>
+      </c>
+      <c r="X124" t="s">
         <v>1179</v>
       </c>
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>1180</v>
       </c>
-      <c r="Y124" t="s">
+      <c r="Z124" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA124" t="s">
         <v>1181</v>
-      </c>
-      <c r="Z124" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>1182</v>
       </c>
       <c r="AB124" t="s">
         <v>54</v>
@@ -19135,25 +19146,25 @@
         <v>47</v>
       </c>
       <c r="AG124" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AH124" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI124" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AJ124" t="s">
         <v>56</v>
       </c>
       <c r="AK124" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AL124" t="s">
         <v>1184</v>
       </c>
-      <c r="AL124" t="s">
+      <c r="AM124" t="s">
         <v>1185</v>
-      </c>
-      <c r="AM124" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -19176,19 +19187,19 @@
         <v>45355.296411863426</v>
       </c>
       <c r="I125" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J125" s="12" t="s">
         <v>1187</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1188</v>
       </c>
       <c r="K125" t="s">
         <v>43</v>
       </c>
       <c r="L125" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M125" t="s">
         <v>1189</v>
-      </c>
-      <c r="M125" t="s">
-        <v>1190</v>
       </c>
       <c r="O125">
         <v>380</v>
@@ -19203,13 +19214,13 @@
         <v>47</v>
       </c>
       <c r="S125" t="s">
+        <v>1190</v>
+      </c>
+      <c r="T125" t="s">
         <v>1191</v>
       </c>
-      <c r="T125" t="s">
+      <c r="U125" t="s">
         <v>1192</v>
-      </c>
-      <c r="U125" t="s">
-        <v>1193</v>
       </c>
       <c r="V125" s="8">
         <v>1860</v>
@@ -19218,16 +19229,16 @@
         <v>872</v>
       </c>
       <c r="X125" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z125" s="8" t="s">
         <v>1194</v>
       </c>
-      <c r="Y125" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z125" s="8" t="s">
+      <c r="AA125" t="s">
         <v>1195</v>
-      </c>
-      <c r="AA125" t="s">
-        <v>1196</v>
       </c>
       <c r="AB125" t="s">
         <v>54</v>
@@ -19245,22 +19256,22 @@
         <v>47</v>
       </c>
       <c r="AG125" s="24" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AH125" s="25" t="s">
         <v>123</v>
       </c>
       <c r="AI125" s="24" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AJ125" t="s">
         <v>56</v>
       </c>
       <c r="AK125" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AL125" t="s">
         <v>1198</v>
-      </c>
-      <c r="AL125" t="s">
-        <v>1199</v>
       </c>
       <c r="AM125" t="s">
         <v>47</v>
@@ -19277,7 +19288,7 @@
         <v>365</v>
       </c>
       <c r="E126" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G126" t="s">
         <v>40</v>
@@ -19286,16 +19297,16 @@
         <v>45355.282905844906</v>
       </c>
       <c r="I126" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J126" s="12" t="s">
         <v>1201</v>
-      </c>
-      <c r="J126" t="s">
-        <v>1202</v>
       </c>
       <c r="K126" t="s">
         <v>62</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M126">
         <v>500071438</v>
@@ -19307,37 +19318,37 @@
         <v>223</v>
       </c>
       <c r="Q126" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R126" t="s">
         <v>66</v>
       </c>
       <c r="S126" t="s">
+        <v>1203</v>
+      </c>
+      <c r="T126" t="s">
+        <v>47</v>
+      </c>
+      <c r="U126" t="s">
         <v>1204</v>
       </c>
-      <c r="T126" t="s">
-        <v>47</v>
-      </c>
-      <c r="U126" t="s">
+      <c r="V126" s="8" t="s">
         <v>1205</v>
       </c>
-      <c r="V126" s="8" t="s">
+      <c r="W126" t="s">
         <v>1206</v>
       </c>
-      <c r="W126" t="s">
+      <c r="X126" s="24" t="s">
         <v>1207</v>
-      </c>
-      <c r="X126" s="24" t="s">
-        <v>1208</v>
       </c>
       <c r="Y126" s="24">
         <v>5568954696</v>
       </c>
       <c r="Z126" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AA126" t="s">
         <v>1209</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>1210</v>
       </c>
       <c r="AB126" t="s">
         <v>54</v>
@@ -19346,7 +19357,7 @@
         <v>47</v>
       </c>
       <c r="AD126" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AE126" t="s">
         <v>89</v>
@@ -19355,22 +19366,22 @@
         <v>633</v>
       </c>
       <c r="AG126" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AH126" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI126" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AJ126" t="s">
         <v>56</v>
       </c>
       <c r="AK126" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AL126" t="s">
         <v>1213</v>
-      </c>
-      <c r="AL126" t="s">
-        <v>1214</v>
       </c>
       <c r="AM126" t="s">
         <v>110</v>
@@ -19390,10 +19401,10 @@
         <v>45355.282950879628</v>
       </c>
       <c r="I127" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J127" t="s">
         <v>1215</v>
-      </c>
-      <c r="J127" t="s">
-        <v>1216</v>
       </c>
       <c r="K127" t="s">
         <v>43</v>
@@ -19408,37 +19419,37 @@
         <v>380</v>
       </c>
       <c r="P127" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Q127" t="s">
         <v>1217</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>1218</v>
       </c>
       <c r="R127" t="s">
         <v>66</v>
       </c>
       <c r="S127" t="s">
+        <v>1218</v>
+      </c>
+      <c r="T127" t="s">
         <v>1219</v>
       </c>
-      <c r="T127" t="s">
+      <c r="U127" t="s">
         <v>1220</v>
       </c>
-      <c r="U127" t="s">
+      <c r="V127" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="V127" s="8" t="s">
+      <c r="W127" t="s">
         <v>1222</v>
       </c>
-      <c r="W127" t="s">
+      <c r="X127" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z127" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="X127" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z127" s="8" t="s">
+      <c r="AA127" t="s">
         <v>1224</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>1225</v>
       </c>
       <c r="AB127" t="s">
         <v>54</v>
@@ -19447,7 +19458,7 @@
         <v>47</v>
       </c>
       <c r="AD127" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AE127" t="s">
         <v>89</v>
@@ -19456,25 +19467,25 @@
         <v>906</v>
       </c>
       <c r="AG127" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AH127" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI127" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AJ127" t="s">
         <v>56</v>
       </c>
       <c r="AK127" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AL127" t="s">
         <v>1228</v>
       </c>
-      <c r="AL127" t="s">
+      <c r="AM127" s="24" t="s">
         <v>1229</v>
-      </c>
-      <c r="AM127" s="24" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="128" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -19485,7 +19496,7 @@
         <v>39</v>
       </c>
       <c r="E128" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -19494,19 +19505,19 @@
         <v>45355.282993043984</v>
       </c>
       <c r="I128" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J128" s="12" t="s">
         <v>1232</v>
-      </c>
-      <c r="J128" s="12" t="s">
-        <v>1233</v>
       </c>
       <c r="K128" s="33" t="s">
         <v>151</v>
       </c>
       <c r="L128" s="33" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M128" s="20" t="s">
         <v>1234</v>
-      </c>
-      <c r="M128" s="20" t="s">
-        <v>1235</v>
       </c>
       <c r="N128" s="33">
         <v>18150</v>
@@ -19522,23 +19533,23 @@
       </c>
       <c r="R128" s="33"/>
       <c r="S128" s="20" t="s">
-        <v>1236</v>
+        <v>1619</v>
       </c>
       <c r="T128" s="33"/>
       <c r="U128" s="33" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="V128" s="33">
         <v>18150</v>
       </c>
       <c r="W128" s="33" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="X128" s="33"/>
       <c r="Y128" s="33"/>
       <c r="Z128" s="33"/>
       <c r="AA128" s="33" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="AB128" s="33" t="s">
         <v>54</v>
@@ -19548,22 +19559,22 @@
       <c r="AE128" s="33"/>
       <c r="AF128" s="33"/>
       <c r="AG128" s="33" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AH128" s="33" t="s">
         <v>56</v>
       </c>
       <c r="AI128" s="33" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AJ128" s="33" t="s">
         <v>56</v>
       </c>
       <c r="AK128" s="33" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="AL128" s="33" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="AM128" s="35"/>
     </row>
@@ -19584,16 +19595,16 @@
         <v>45355.283026273151</v>
       </c>
       <c r="I129" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J129" t="s">
-        <v>1244</v>
+        <v>1241</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>1242</v>
       </c>
       <c r="K129" t="s">
         <v>151</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="M129">
         <v>1011542</v>
@@ -19605,7 +19616,7 @@
         <v>153</v>
       </c>
       <c r="Q129" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="R129" t="s">
         <v>66</v>
@@ -19682,16 +19693,16 @@
         <v>45355.283062407405</v>
       </c>
       <c r="I130" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="J130" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="K130" t="s">
         <v>62</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M130">
         <v>30129</v>
@@ -19700,10 +19711,10 @@
         <v>380</v>
       </c>
       <c r="P130" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Q130" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R130" t="s">
         <v>66</v>
@@ -19777,7 +19788,7 @@
         <v>58</v>
       </c>
       <c r="C131" s="57" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D131" t="s">
         <v>662</v>
@@ -19792,10 +19803,10 @@
         <v>45355.283101840279</v>
       </c>
       <c r="I131" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K131" t="s">
         <v>145</v>
@@ -19804,7 +19815,7 @@
         <v>169</v>
       </c>
       <c r="O131" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="P131" t="s">
         <v>47</v>
@@ -19887,7 +19898,7 @@
         <v>662</v>
       </c>
       <c r="E132" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -19896,16 +19907,16 @@
         <v>45355.283144583336</v>
       </c>
       <c r="I132" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K132" t="s">
         <v>145</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="P132" t="s">
         <v>47</v>
@@ -19917,7 +19928,7 @@
         <v>47</v>
       </c>
       <c r="S132" t="s">
-        <v>47</v>
+        <v>1620</v>
       </c>
       <c r="T132" t="s">
         <v>47</v>
@@ -19988,7 +19999,7 @@
         <v>662</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -19997,16 +20008,16 @@
         <v>45355.283183703701</v>
       </c>
       <c r="I133" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J133" t="s">
-        <v>1260</v>
+        <v>1257</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>1258</v>
       </c>
       <c r="K133" t="s">
         <v>151</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="M133" s="24">
         <v>240125</v>
@@ -20016,35 +20027,37 @@
         <v>380</v>
       </c>
       <c r="P133" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q133" s="24" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R133" t="s">
+        <v>47</v>
+      </c>
+      <c r="S133" s="24" t="s">
+        <v>1621</v>
+      </c>
+      <c r="T133" t="s">
+        <v>47</v>
+      </c>
+      <c r="U133" t="s">
         <v>1262</v>
       </c>
-      <c r="Q133" s="24" t="s">
+      <c r="V133" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="R133" t="s">
-        <v>47</v>
-      </c>
-      <c r="S133" s="24"/>
-      <c r="T133" t="s">
-        <v>47</v>
-      </c>
-      <c r="U133" t="s">
+      <c r="W133" t="s">
         <v>1264</v>
       </c>
-      <c r="V133" s="8" t="s">
+      <c r="X133" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z133" s="8" t="s">
         <v>1265</v>
       </c>
-      <c r="W133" t="s">
+      <c r="AA133" t="s">
         <v>1266</v>
-      </c>
-      <c r="X133" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z133" s="8" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AA133" t="s">
-        <v>1268</v>
       </c>
       <c r="AB133" t="s">
         <v>89</v>
@@ -20053,7 +20066,7 @@
         <v>476</v>
       </c>
       <c r="AD133" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AE133" t="s">
         <v>47</v>
@@ -20062,22 +20075,22 @@
         <v>47</v>
       </c>
       <c r="AG133" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="AH133" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI133" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="AJ133" t="s">
         <v>56</v>
       </c>
       <c r="AK133" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="AL133" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AM133" t="s">
         <v>123</v>
@@ -20085,7 +20098,7 @@
     </row>
     <row r="134" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A134" s="3" t="s">
-        <v>39</v>
+        <v>1622</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>58</v>
@@ -20094,7 +20107,7 @@
         <v>662</v>
       </c>
       <c r="E134" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F134" t="s">
         <v>40</v>
@@ -20106,16 +20119,16 @@
         <v>45355.283219432873</v>
       </c>
       <c r="I134" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1274</v>
+        <v>1271</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>1272</v>
       </c>
       <c r="K134" t="s">
         <v>43</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="M134">
         <v>240210</v>
@@ -20124,37 +20137,37 @@
         <v>380</v>
       </c>
       <c r="P134" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Q134" s="24" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R134" t="s">
+        <v>47</v>
+      </c>
+      <c r="S134" t="s">
         <v>1276</v>
       </c>
-      <c r="Q134" s="24" t="s">
+      <c r="T134" t="s">
+        <v>47</v>
+      </c>
+      <c r="U134" t="s">
+        <v>47</v>
+      </c>
+      <c r="V134" s="25" t="s">
         <v>1277</v>
       </c>
-      <c r="R134" t="s">
-        <v>47</v>
-      </c>
-      <c r="S134" t="s">
+      <c r="W134" t="s">
+        <v>47</v>
+      </c>
+      <c r="X134" t="s">
         <v>1278</v>
       </c>
-      <c r="T134" t="s">
-        <v>47</v>
-      </c>
-      <c r="U134" t="s">
-        <v>47</v>
-      </c>
-      <c r="V134" s="25" t="s">
+      <c r="Z134" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA134" t="s">
         <v>1279</v>
-      </c>
-      <c r="W134" t="s">
-        <v>47</v>
-      </c>
-      <c r="X134" t="s">
-        <v>1280</v>
-      </c>
-      <c r="Z134" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA134" t="s">
-        <v>1281</v>
       </c>
       <c r="AB134" t="s">
         <v>54</v>
@@ -20163,7 +20176,7 @@
         <v>47</v>
       </c>
       <c r="AD134" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AE134" t="s">
         <v>811</v>
@@ -20172,22 +20185,22 @@
         <v>47</v>
       </c>
       <c r="AG134" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="AH134" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI134" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="AJ134" t="s">
         <v>123</v>
       </c>
       <c r="AK134" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AL134" s="24" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="AM134" t="s">
         <v>47</v>
@@ -20204,10 +20217,10 @@
         <v>45355.283299085648</v>
       </c>
       <c r="I135" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="J135" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="K135" t="s">
         <v>43</v>
@@ -20222,37 +20235,37 @@
         <v>380</v>
       </c>
       <c r="P135" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Q135" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="R135" t="s">
         <v>66</v>
       </c>
       <c r="S135" t="s">
+        <v>1287</v>
+      </c>
+      <c r="T135" t="s">
+        <v>1288</v>
+      </c>
+      <c r="U135" t="s">
         <v>1289</v>
       </c>
-      <c r="T135" t="s">
+      <c r="V135" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="U135" t="s">
+      <c r="W135" t="s">
         <v>1291</v>
       </c>
-      <c r="V135" s="8" t="s">
+      <c r="X135" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z135" s="8" t="s">
         <v>1292</v>
       </c>
-      <c r="W135" t="s">
+      <c r="AA135" t="s">
         <v>1293</v>
-      </c>
-      <c r="X135" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z135" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="AA135" t="s">
-        <v>1295</v>
       </c>
       <c r="AB135" t="s">
         <v>54</v>
@@ -20261,7 +20274,7 @@
         <v>47</v>
       </c>
       <c r="AD135" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="AE135" t="s">
         <v>89</v>
@@ -20270,22 +20283,22 @@
         <v>906</v>
       </c>
       <c r="AG135" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AH135" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI135" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AJ135" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK135" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AL135" t="s">
         <v>1297</v>
-      </c>
-      <c r="AJ135" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK135" t="s">
-        <v>1298</v>
-      </c>
-      <c r="AL135" t="s">
-        <v>1299</v>
       </c>
       <c r="AM135" t="s">
         <v>548</v>
@@ -20314,16 +20327,16 @@
         <v>45355.283335775464</v>
       </c>
       <c r="I136" t="s">
-        <v>1300</v>
-      </c>
-      <c r="J136" t="s">
-        <v>1301</v>
+        <v>1298</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>1299</v>
       </c>
       <c r="K136" t="s">
         <v>62</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M136">
         <v>10478915</v>
@@ -20332,37 +20345,37 @@
         <v>380</v>
       </c>
       <c r="P136" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="Q136" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="R136" t="s">
         <v>66</v>
       </c>
       <c r="S136" t="s">
+        <v>1302</v>
+      </c>
+      <c r="T136" t="s">
+        <v>1303</v>
+      </c>
+      <c r="U136" t="s">
         <v>1304</v>
       </c>
-      <c r="T136" t="s">
+      <c r="V136" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="U136" t="s">
+      <c r="W136" t="s">
         <v>1306</v>
       </c>
-      <c r="V136" s="8" t="s">
+      <c r="X136" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z136" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AA136" t="s">
         <v>1307</v>
-      </c>
-      <c r="W136" t="s">
-        <v>1308</v>
-      </c>
-      <c r="X136" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z136" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="AA136" t="s">
-        <v>1309</v>
       </c>
       <c r="AB136" t="s">
         <v>54</v>
@@ -20371,7 +20384,7 @@
         <v>47</v>
       </c>
       <c r="AD136" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="AE136" t="s">
         <v>89</v>
@@ -20392,10 +20405,10 @@
         <v>47</v>
       </c>
       <c r="AK136" s="24" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="AL136" s="24" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="AM136" s="24" t="s">
         <v>47</v>
@@ -20409,7 +20422,7 @@
         <v>58</v>
       </c>
       <c r="E137" s="18" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
@@ -20418,10 +20431,10 @@
         <v>45355.283365763891</v>
       </c>
       <c r="I137" t="s">
-        <v>1313</v>
-      </c>
-      <c r="J137" t="s">
-        <v>1314</v>
+        <v>1311</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>1312</v>
       </c>
       <c r="K137" t="s">
         <v>62</v>
@@ -20437,37 +20450,37 @@
         <v>380</v>
       </c>
       <c r="P137" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>1313</v>
+      </c>
+      <c r="R137" t="s">
+        <v>47</v>
+      </c>
+      <c r="S137" t="s">
+        <v>1314</v>
+      </c>
+      <c r="T137" t="s">
         <v>1315</v>
       </c>
-      <c r="Q137" t="s">
-        <v>1315</v>
-      </c>
-      <c r="R137" t="s">
-        <v>47</v>
-      </c>
-      <c r="S137" t="s">
+      <c r="U137" t="s">
         <v>1316</v>
       </c>
-      <c r="T137" t="s">
+      <c r="V137" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="U137" t="s">
+      <c r="W137" t="s">
+        <v>47</v>
+      </c>
+      <c r="X137" s="24" t="s">
         <v>1318</v>
       </c>
-      <c r="V137" s="25" t="s">
+      <c r="Z137" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA137" t="s">
         <v>1319</v>
-      </c>
-      <c r="W137" t="s">
-        <v>47</v>
-      </c>
-      <c r="X137" s="24" t="s">
-        <v>1320</v>
-      </c>
-      <c r="Z137" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA137" t="s">
-        <v>1321</v>
       </c>
       <c r="AB137" t="s">
         <v>54</v>
@@ -20485,22 +20498,22 @@
         <v>47</v>
       </c>
       <c r="AG137" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="AH137" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI137" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="AJ137" t="s">
         <v>56</v>
       </c>
       <c r="AK137" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="AL137" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="AM137" t="s">
         <v>110</v>
@@ -20517,7 +20530,7 @@
         <v>365</v>
       </c>
       <c r="E138" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F138" t="s">
         <v>40</v>
@@ -20529,16 +20542,16 @@
         <v>45355.283404768517</v>
       </c>
       <c r="I138" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J138" t="s">
-        <v>1327</v>
+        <v>1324</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>1325</v>
       </c>
       <c r="K138" t="s">
         <v>43</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="M138">
         <v>3076</v>
@@ -20550,50 +20563,50 @@
         <v>223</v>
       </c>
       <c r="Q138" t="s">
+        <v>1327</v>
+      </c>
+      <c r="S138" t="s">
+        <v>1328</v>
+      </c>
+      <c r="T138" t="s">
+        <v>1071</v>
+      </c>
+      <c r="U138" s="24" t="s">
         <v>1329</v>
       </c>
-      <c r="S138" t="s">
+      <c r="V138" s="8" t="s">
         <v>1330</v>
       </c>
-      <c r="T138" t="s">
-        <v>1072</v>
-      </c>
-      <c r="U138" s="24" t="s">
+      <c r="X138" t="s">
         <v>1331</v>
       </c>
-      <c r="V138" s="8" t="s">
+      <c r="Z138" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AA138" t="s">
         <v>1332</v>
-      </c>
-      <c r="X138" t="s">
-        <v>1333</v>
-      </c>
-      <c r="Z138" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>1334</v>
       </c>
       <c r="AB138" t="s">
         <v>54</v>
       </c>
       <c r="AF138" s="8"/>
       <c r="AG138" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="AH138" s="8" t="s">
         <v>123</v>
       </c>
       <c r="AI138" s="24" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="AJ138" s="24" t="s">
         <v>56</v>
       </c>
       <c r="AK138" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="AL138" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="139" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -20616,10 +20629,10 @@
         <v>45355.283443275461</v>
       </c>
       <c r="I139" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J139" t="s">
-        <v>1339</v>
+        <v>1336</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>1337</v>
       </c>
       <c r="K139" t="s">
         <v>43</v>
@@ -20634,37 +20647,37 @@
         <v>380</v>
       </c>
       <c r="P139" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="Q139" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="R139" t="s">
         <v>66</v>
       </c>
       <c r="S139" t="s">
+        <v>1339</v>
+      </c>
+      <c r="T139" t="s">
+        <v>1340</v>
+      </c>
+      <c r="U139" t="s">
         <v>1341</v>
       </c>
-      <c r="T139" t="s">
+      <c r="V139" s="8" t="s">
         <v>1342</v>
       </c>
-      <c r="U139" t="s">
+      <c r="W139" t="s">
         <v>1343</v>
       </c>
-      <c r="V139" s="8" t="s">
+      <c r="X139" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z139" s="8" t="s">
         <v>1344</v>
       </c>
-      <c r="W139" t="s">
+      <c r="AA139" t="s">
         <v>1345</v>
-      </c>
-      <c r="X139" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z139" s="8" t="s">
-        <v>1346</v>
-      </c>
-      <c r="AA139" t="s">
-        <v>1347</v>
       </c>
       <c r="AB139" t="s">
         <v>54</v>
@@ -20673,7 +20686,7 @@
         <v>47</v>
       </c>
       <c r="AD139" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="AE139" t="s">
         <v>89</v>
@@ -20682,22 +20695,22 @@
         <v>679</v>
       </c>
       <c r="AG139" s="24" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="AH139" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI139" s="24" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="AJ139" t="s">
         <v>56</v>
       </c>
       <c r="AK139" s="24" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="AL139" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="AM139" t="s">
         <v>110</v>
@@ -20714,16 +20727,16 @@
         <v>45353.387387002316</v>
       </c>
       <c r="I140" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="K140" t="s">
         <v>62</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M140">
         <v>1019470</v>
@@ -20741,29 +20754,29 @@
         <v>66</v>
       </c>
       <c r="S140" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="T140" t="s">
         <v>47</v>
       </c>
       <c r="U140" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="V140" s="8">
         <v>101030</v>
       </c>
       <c r="W140" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="X140" s="24"/>
       <c r="Y140" t="s">
         <v>47</v>
       </c>
       <c r="Z140" s="8" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="AA140" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="AB140" t="s">
         <v>54</v>
@@ -20772,7 +20785,7 @@
         <v>47</v>
       </c>
       <c r="AD140" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="AE140" t="s">
         <v>89</v>
@@ -20781,25 +20794,25 @@
         <v>137</v>
       </c>
       <c r="AG140" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="AH140" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI140" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="AJ140" t="s">
         <v>56</v>
       </c>
       <c r="AK140" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AL140" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AM140" t="s">
         <v>1361</v>
-      </c>
-      <c r="AL140" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AM140" t="s">
-        <v>1363</v>
       </c>
       <c r="AN140" t="s">
         <v>94</v>
@@ -20816,10 +20829,10 @@
         <v>45353.387504444443</v>
       </c>
       <c r="I141" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="K141" s="19" t="s">
         <v>62</v>
@@ -20846,34 +20859,34 @@
         <v>66</v>
       </c>
       <c r="S141" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="T141" s="19" t="s">
+        <v>1365</v>
+      </c>
+      <c r="U141" s="19" t="s">
         <v>1366</v>
-      </c>
-      <c r="T141" s="19" t="s">
-        <v>1367</v>
-      </c>
-      <c r="U141" s="19" t="s">
-        <v>1368</v>
       </c>
       <c r="V141" s="19">
         <v>998877</v>
       </c>
       <c r="W141" s="19" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="X141" s="19"/>
       <c r="Y141" s="19"/>
       <c r="Z141" s="19" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="AA141" s="19" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="AB141" s="19" t="s">
         <v>54</v>
       </c>
       <c r="AC141" s="19"/>
       <c r="AD141" s="19" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="AE141" s="19" t="s">
         <v>89</v>
@@ -20882,22 +20895,22 @@
         <v>476</v>
       </c>
       <c r="AG141" s="19" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="AH141" s="19" t="s">
         <v>56</v>
       </c>
       <c r="AI141" s="19" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="AJ141" s="19" t="s">
         <v>56</v>
       </c>
       <c r="AK141" s="19" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="AL141" s="19" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="AM141" s="22" t="s">
         <v>548</v>
@@ -20920,16 +20933,16 @@
         <v>45353.387547256942</v>
       </c>
       <c r="I142" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="K142" t="s">
         <v>62</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M142" s="42">
         <v>3192626</v>
@@ -20948,13 +20961,13 @@
         <v>66</v>
       </c>
       <c r="S142" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="T142" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="U142" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="V142" s="8">
         <v>998877</v>
@@ -20969,10 +20982,10 @@
         <v>47</v>
       </c>
       <c r="Z142" s="8" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="AA142" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="AB142" t="s">
         <v>54</v>
@@ -20990,22 +21003,22 @@
         <v>47</v>
       </c>
       <c r="AG142" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="AH142" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI142" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="AJ142" t="s">
         <v>56</v>
       </c>
       <c r="AK142" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="AL142" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="AM142" t="s">
         <v>290</v>
@@ -21022,19 +21035,19 @@
         <v>45350.524394363427</v>
       </c>
       <c r="I143" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="K143" t="s">
         <v>151</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="M143" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="O143">
         <v>380</v>
@@ -21049,16 +21062,16 @@
         <v>47</v>
       </c>
       <c r="S143" t="s">
+        <v>1385</v>
+      </c>
+      <c r="T143" t="s">
+        <v>1386</v>
+      </c>
+      <c r="U143" t="s">
         <v>1387</v>
       </c>
-      <c r="T143" t="s">
+      <c r="V143" s="8" t="s">
         <v>1388</v>
-      </c>
-      <c r="U143" t="s">
-        <v>1389</v>
-      </c>
-      <c r="V143" s="8" t="s">
-        <v>1390</v>
       </c>
       <c r="W143" t="s">
         <v>759</v>
@@ -21070,10 +21083,10 @@
         <v>47</v>
       </c>
       <c r="Z143" s="8" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="AA143" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="AB143" t="s">
         <v>54</v>
@@ -21091,28 +21104,28 @@
         <v>47</v>
       </c>
       <c r="AG143" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AH143" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI143" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AJ143" t="s">
         <v>56</v>
       </c>
       <c r="AK143" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="AL143" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="AM143" t="s">
         <v>110</v>
       </c>
       <c r="AN143" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="144" spans="1:40" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -21126,19 +21139,19 @@
         <v>45350.608859884262</v>
       </c>
       <c r="I144" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="K144" t="s">
         <v>43</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M144" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="O144">
         <v>380</v>
@@ -21153,31 +21166,31 @@
         <v>66</v>
       </c>
       <c r="S144" t="s">
+        <v>1398</v>
+      </c>
+      <c r="T144" t="s">
+        <v>1399</v>
+      </c>
+      <c r="U144" t="s">
         <v>1400</v>
       </c>
-      <c r="T144" t="s">
+      <c r="V144" s="8" t="s">
         <v>1401</v>
-      </c>
-      <c r="U144" t="s">
-        <v>1402</v>
-      </c>
-      <c r="V144" s="8" t="s">
-        <v>1403</v>
       </c>
       <c r="W144" t="s">
         <v>872</v>
       </c>
       <c r="X144" t="s">
+        <v>1402</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Z144" s="8" t="s">
         <v>1404</v>
       </c>
-      <c r="Y144" t="s">
+      <c r="AA144" t="s">
         <v>1405</v>
-      </c>
-      <c r="Z144" s="8" t="s">
-        <v>1406</v>
-      </c>
-      <c r="AA144" t="s">
-        <v>1407</v>
       </c>
       <c r="AB144" t="s">
         <v>54</v>
@@ -21195,28 +21208,28 @@
         <v>47</v>
       </c>
       <c r="AG144" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="AH144" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI144" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AL144" t="s">
         <v>1408</v>
-      </c>
-      <c r="AJ144" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK144" t="s">
-        <v>1409</v>
-      </c>
-      <c r="AL144" t="s">
-        <v>1410</v>
       </c>
       <c r="AM144" t="s">
         <v>123</v>
       </c>
       <c r="AN144" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="145" spans="1:41" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -21230,19 +21243,19 @@
         <v>45350.902346435185</v>
       </c>
       <c r="I145" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="K145" t="s">
         <v>62</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M145" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="O145">
         <v>380</v>
@@ -21257,31 +21270,31 @@
         <v>66</v>
       </c>
       <c r="S145" t="s">
+        <v>1412</v>
+      </c>
+      <c r="T145" t="s">
+        <v>1413</v>
+      </c>
+      <c r="U145" t="s">
         <v>1414</v>
       </c>
-      <c r="T145" t="s">
+      <c r="V145" s="8" t="s">
         <v>1415</v>
       </c>
-      <c r="U145" t="s">
+      <c r="W145" t="s">
         <v>1416</v>
       </c>
-      <c r="V145" s="8" t="s">
+      <c r="X145" s="24" t="s">
         <v>1417</v>
       </c>
-      <c r="W145" t="s">
+      <c r="Y145" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z145" s="8" t="s">
         <v>1418</v>
       </c>
-      <c r="X145" s="24" t="s">
+      <c r="AA145" t="s">
         <v>1419</v>
-      </c>
-      <c r="Y145" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z145" s="8" t="s">
-        <v>1420</v>
-      </c>
-      <c r="AA145" t="s">
-        <v>1421</v>
       </c>
       <c r="AB145" t="s">
         <v>54</v>
@@ -21299,22 +21312,22 @@
         <v>47</v>
       </c>
       <c r="AG145" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="AH145" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI145" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AJ145" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK145" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AL145" t="s">
         <v>1422</v>
-      </c>
-      <c r="AJ145" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK145" t="s">
-        <v>1423</v>
-      </c>
-      <c r="AL145" t="s">
-        <v>1424</v>
       </c>
       <c r="AM145" t="s">
         <v>47</v>
@@ -21331,7 +21344,7 @@
         <v>58</v>
       </c>
       <c r="E146" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="F146" t="s">
         <v>40</v>
@@ -21343,10 +21356,10 @@
         <v>45350.902481111109</v>
       </c>
       <c r="I146" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J146" t="s">
-        <v>1427</v>
+        <v>1424</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>1425</v>
       </c>
       <c r="K146" t="s">
         <v>43</v>
@@ -21370,31 +21383,31 @@
         <v>47</v>
       </c>
       <c r="S146" t="s">
+        <v>1426</v>
+      </c>
+      <c r="T146" t="s">
+        <v>1427</v>
+      </c>
+      <c r="U146" s="24" t="s">
         <v>1428</v>
       </c>
-      <c r="T146" t="s">
+      <c r="V146" s="25" t="s">
+        <v>1428</v>
+      </c>
+      <c r="W146" t="s">
         <v>1429</v>
       </c>
-      <c r="U146" s="24" t="s">
+      <c r="X146" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z146" s="8" t="s">
         <v>1430</v>
       </c>
-      <c r="V146" s="25" t="s">
-        <v>1430</v>
-      </c>
-      <c r="W146" t="s">
+      <c r="AA146" t="s">
         <v>1431</v>
-      </c>
-      <c r="X146" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z146" s="8" t="s">
-        <v>1432</v>
-      </c>
-      <c r="AA146" t="s">
-        <v>1433</v>
       </c>
       <c r="AB146" t="s">
         <v>54</v>
@@ -21412,22 +21425,22 @@
         <v>47</v>
       </c>
       <c r="AG146" s="24" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="AH146" s="25" t="s">
         <v>56</v>
       </c>
       <c r="AI146" s="24" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="AJ146" s="24" t="s">
         <v>56</v>
       </c>
       <c r="AK146" s="24" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="AL146" s="24" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="AM146" s="24" t="s">
         <v>110</v>
@@ -21441,7 +21454,7 @@
         <v>58</v>
       </c>
       <c r="E147" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G147" t="s">
         <v>40</v>
@@ -21450,19 +21463,19 @@
         <v>45350.902679537037</v>
       </c>
       <c r="I147" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K147" t="s">
         <v>62</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M147" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="O147">
         <v>380</v>
@@ -21477,31 +21490,31 @@
         <v>66</v>
       </c>
       <c r="S147" t="s">
+        <v>1440</v>
+      </c>
+      <c r="T147" t="s">
+        <v>47</v>
+      </c>
+      <c r="U147" t="s">
+        <v>1441</v>
+      </c>
+      <c r="V147" s="8" t="s">
         <v>1442</v>
       </c>
-      <c r="T147" t="s">
-        <v>47</v>
-      </c>
-      <c r="U147" t="s">
+      <c r="W147" t="s">
         <v>1443</v>
       </c>
-      <c r="V147" s="8" t="s">
+      <c r="X147" s="24" t="s">
         <v>1444</v>
       </c>
-      <c r="W147" t="s">
+      <c r="Y147" s="24" t="s">
         <v>1445</v>
       </c>
-      <c r="X147" s="24" t="s">
+      <c r="Z147" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="Y147" s="24" t="s">
+      <c r="AA147" t="s">
         <v>1447</v>
-      </c>
-      <c r="Z147" s="8" t="s">
-        <v>1448</v>
-      </c>
-      <c r="AA147" t="s">
-        <v>1449</v>
       </c>
       <c r="AB147" t="s">
         <v>54</v>
@@ -21519,22 +21532,22 @@
         <v>47</v>
       </c>
       <c r="AG147" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="AH147" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI147" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="AJ147" t="s">
         <v>56</v>
       </c>
       <c r="AK147" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AL147" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AM147" t="s">
         <v>110</v>
@@ -21551,19 +21564,19 @@
         <v>45350.90272244213</v>
       </c>
       <c r="I148" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="K148" t="s">
         <v>62</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M148" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="O148">
         <v>380</v>
@@ -21578,31 +21591,31 @@
         <v>66</v>
       </c>
       <c r="S148" t="s">
+        <v>1454</v>
+      </c>
+      <c r="T148" t="s">
+        <v>1455</v>
+      </c>
+      <c r="U148" t="s">
+        <v>47</v>
+      </c>
+      <c r="V148" s="8" t="s">
         <v>1456</v>
       </c>
-      <c r="T148" t="s">
+      <c r="W148" t="s">
         <v>1457</v>
       </c>
-      <c r="U148" t="s">
-        <v>47</v>
-      </c>
-      <c r="V148" s="8" t="s">
+      <c r="X148" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y148" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z148" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA148" t="s">
         <v>1458</v>
-      </c>
-      <c r="W148" t="s">
-        <v>1459</v>
-      </c>
-      <c r="X148" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y148" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z148" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA148" t="s">
-        <v>1460</v>
       </c>
       <c r="AB148" t="s">
         <v>54</v>
@@ -21620,22 +21633,22 @@
         <v>47</v>
       </c>
       <c r="AG148" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AH148" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI148" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AJ148" t="s">
         <v>123</v>
       </c>
       <c r="AK148" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AL148" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="AM148" t="s">
         <v>47</v>
@@ -21655,19 +21668,19 @@
         <v>45350.902780023149</v>
       </c>
       <c r="I149" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="K149" t="s">
         <v>62</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M149" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="O149">
         <v>380</v>
@@ -21682,31 +21695,31 @@
         <v>66</v>
       </c>
       <c r="S149" s="24" t="s">
+        <v>1465</v>
+      </c>
+      <c r="T149" t="s">
+        <v>47</v>
+      </c>
+      <c r="U149" t="s">
+        <v>1466</v>
+      </c>
+      <c r="V149" s="8" t="s">
         <v>1467</v>
       </c>
-      <c r="T149" t="s">
-        <v>47</v>
-      </c>
-      <c r="U149" t="s">
+      <c r="W149" t="s">
+        <v>47</v>
+      </c>
+      <c r="X149" t="s">
         <v>1468</v>
       </c>
-      <c r="V149" s="8" t="s">
+      <c r="Y149" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z149" s="8" t="s">
         <v>1469</v>
       </c>
-      <c r="W149" t="s">
-        <v>47</v>
-      </c>
-      <c r="X149" t="s">
+      <c r="AA149" t="s">
         <v>1470</v>
-      </c>
-      <c r="Y149" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z149" s="8" t="s">
-        <v>1471</v>
-      </c>
-      <c r="AA149" t="s">
-        <v>1472</v>
       </c>
       <c r="AB149" t="s">
         <v>54</v>
@@ -21715,7 +21728,7 @@
         <v>47</v>
       </c>
       <c r="AD149" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="AE149" t="s">
         <v>89</v>
@@ -21724,25 +21737,25 @@
         <v>679</v>
       </c>
       <c r="AG149" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="AH149" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI149" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AL149" t="s">
         <v>1474</v>
       </c>
-      <c r="AJ149" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK149" t="s">
+      <c r="AM149" t="s">
         <v>1475</v>
-      </c>
-      <c r="AL149" t="s">
-        <v>1476</v>
-      </c>
-      <c r="AM149" t="s">
-        <v>1477</v>
       </c>
       <c r="AN149" s="43" t="s">
         <v>94</v>
@@ -21759,19 +21772,19 @@
         <v>45350.524394363427</v>
       </c>
       <c r="I150" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J150" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="K150" t="s">
         <v>151</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="M150" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="O150">
         <v>380</v>
@@ -21786,16 +21799,16 @@
         <v>47</v>
       </c>
       <c r="S150" t="s">
+        <v>1385</v>
+      </c>
+      <c r="T150" t="s">
+        <v>1386</v>
+      </c>
+      <c r="U150" t="s">
         <v>1387</v>
       </c>
-      <c r="T150" t="s">
+      <c r="V150" s="8" t="s">
         <v>1388</v>
-      </c>
-      <c r="U150" t="s">
-        <v>1389</v>
-      </c>
-      <c r="V150" s="8" t="s">
-        <v>1390</v>
       </c>
       <c r="W150" t="s">
         <v>759</v>
@@ -21804,10 +21817,10 @@
         <v>47</v>
       </c>
       <c r="Z150" s="8" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="AA150" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="AB150" t="s">
         <v>54</v>
@@ -21825,22 +21838,22 @@
         <v>47</v>
       </c>
       <c r="AG150" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AH150" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AI150" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AJ150" t="s">
         <v>56</v>
       </c>
       <c r="AK150" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="AL150" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="AM150" t="s">
         <v>110</v>
@@ -21865,19 +21878,19 @@
         <v>45351.535099317131</v>
       </c>
       <c r="I151" s="43" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="J151" s="47" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="K151" s="43" t="s">
         <v>62</v>
       </c>
       <c r="L151" s="48" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M151" s="43" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="N151" s="43"/>
       <c r="O151" s="43">
@@ -21893,29 +21906,29 @@
         <v>66</v>
       </c>
       <c r="S151" s="43" t="s">
+        <v>1479</v>
+      </c>
+      <c r="T151" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="U151" s="43" t="s">
+        <v>1480</v>
+      </c>
+      <c r="V151" s="50" t="s">
         <v>1481</v>
       </c>
-      <c r="T151" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="U151" s="43" t="s">
+      <c r="W151" s="43" t="s">
         <v>1482</v>
-      </c>
-      <c r="V151" s="50" t="s">
-        <v>1483</v>
-      </c>
-      <c r="W151" s="43" t="s">
-        <v>1484</v>
       </c>
       <c r="X151" s="51" t="s">
         <v>47</v>
       </c>
       <c r="Y151" s="43"/>
       <c r="Z151" s="50" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="AA151" s="43" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AB151" s="43" t="s">
         <v>54</v>
@@ -21933,22 +21946,22 @@
         <v>47</v>
       </c>
       <c r="AG151" s="43" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="AH151" s="50" t="s">
         <v>56</v>
       </c>
       <c r="AI151" s="43" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="AJ151" s="43" t="s">
         <v>56</v>
       </c>
       <c r="AK151" s="43" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AL151" s="43" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="AM151" s="43" t="s">
         <v>290</v>
@@ -21968,7 +21981,7 @@
       <c r="C152" s="43"/>
       <c r="D152" s="43"/>
       <c r="E152" s="43" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="F152" s="43"/>
       <c r="G152" s="43" t="s">
@@ -21978,19 +21991,19 @@
         <v>45351.535144293979</v>
       </c>
       <c r="I152" s="43" t="s">
-        <v>1491</v>
-      </c>
-      <c r="J152" s="43" t="s">
-        <v>1492</v>
+        <v>1489</v>
+      </c>
+      <c r="J152" s="47" t="s">
+        <v>1490</v>
       </c>
       <c r="K152" s="43" t="s">
         <v>62</v>
       </c>
       <c r="L152" s="48" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M152" s="43" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="N152" s="43"/>
       <c r="O152" s="43">
@@ -22006,29 +22019,29 @@
         <v>66</v>
       </c>
       <c r="S152" s="43" t="s">
+        <v>1492</v>
+      </c>
+      <c r="T152" s="43" t="s">
+        <v>1493</v>
+      </c>
+      <c r="U152" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="V152" s="50" t="s">
         <v>1494</v>
       </c>
-      <c r="T152" s="43" t="s">
+      <c r="W152" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X152" s="51" t="s">
         <v>1495</v>
-      </c>
-      <c r="U152" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="V152" s="50" t="s">
-        <v>1496</v>
-      </c>
-      <c r="W152" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="X152" s="51" t="s">
-        <v>1497</v>
       </c>
       <c r="Y152" s="43"/>
       <c r="Z152" s="50" t="s">
         <v>47</v>
       </c>
       <c r="AA152" s="43" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="AB152" s="43" t="s">
         <v>54</v>
@@ -22046,22 +22059,22 @@
         <v>47</v>
       </c>
       <c r="AG152" s="43" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="AH152" s="50" t="s">
         <v>56</v>
       </c>
       <c r="AI152" s="43" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="AJ152" s="43" t="s">
         <v>56</v>
       </c>
       <c r="AK152" s="43" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="AL152" s="43" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="AM152" s="43" t="s">
         <v>47</v>
@@ -22080,19 +22093,19 @@
         <v>45351.535177650461</v>
       </c>
       <c r="I153" s="43" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="J153" s="47" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="K153" s="43" t="s">
         <v>62</v>
       </c>
       <c r="L153" s="48" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M153" s="43" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="N153" s="43"/>
       <c r="O153" s="43">
@@ -22108,16 +22121,16 @@
         <v>66</v>
       </c>
       <c r="S153" s="43" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T153" s="43" t="s">
+        <v>1504</v>
+      </c>
+      <c r="U153" s="43" t="s">
         <v>1505</v>
       </c>
-      <c r="T153" s="43" t="s">
+      <c r="V153" s="50" t="s">
         <v>1506</v>
-      </c>
-      <c r="U153" s="43" t="s">
-        <v>1507</v>
-      </c>
-      <c r="V153" s="50" t="s">
-        <v>1508</v>
       </c>
       <c r="W153" s="43" t="s">
         <v>872</v>
@@ -22127,10 +22140,10 @@
       </c>
       <c r="Y153" s="43"/>
       <c r="Z153" s="50" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="AA153" s="43" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="AB153" s="43" t="s">
         <v>54</v>
@@ -22148,28 +22161,28 @@
         <v>47</v>
       </c>
       <c r="AG153" s="43" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="AH153" s="50" t="s">
         <v>56</v>
       </c>
       <c r="AI153" s="43" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="AJ153" s="43" t="s">
         <v>56</v>
       </c>
       <c r="AK153" s="43" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="AL153" s="43" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="AM153" s="43" t="s">
         <v>110</v>
       </c>
       <c r="AN153" s="43" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="AO153" s="43"/>
     </row>
@@ -22179,7 +22192,7 @@
       </c>
       <c r="B154" s="41"/>
       <c r="C154" s="57" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E154" t="s">
         <v>166</v>
@@ -22191,10 +22204,10 @@
         <v>45351.535252037036</v>
       </c>
       <c r="I154" s="43" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="J154" s="47" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="K154" s="43" t="s">
         <v>145</v>
@@ -22287,19 +22300,19 @@
         <v>45351.535284745369</v>
       </c>
       <c r="I155" s="43" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="J155" s="47" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="K155" s="43" t="s">
         <v>62</v>
       </c>
       <c r="L155" s="48" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M155" s="43" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="N155" s="43"/>
       <c r="O155" s="43">
@@ -22315,7 +22328,7 @@
         <v>66</v>
       </c>
       <c r="S155" s="43" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="T155" s="43" t="s">
         <v>47</v>
@@ -22324,20 +22337,20 @@
         <v>47</v>
       </c>
       <c r="V155" s="50" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="W155" s="43" t="s">
         <v>47</v>
       </c>
       <c r="X155" s="43" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="Y155" s="43"/>
       <c r="Z155" s="50" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="AA155" s="43" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AB155" s="43" t="s">
         <v>54</v>
@@ -22346,7 +22359,7 @@
         <v>47</v>
       </c>
       <c r="AD155" s="43" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="AE155" s="43" t="s">
         <v>89</v>
@@ -22355,25 +22368,25 @@
         <v>90</v>
       </c>
       <c r="AG155" s="43" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="AH155" s="50" t="s">
         <v>56</v>
       </c>
       <c r="AI155" s="43" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="AJ155" s="43" t="s">
         <v>56</v>
       </c>
       <c r="AK155" s="43" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AL155" s="43" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AM155" s="43" t="s">
         <v>1526</v>
-      </c>
-      <c r="AL155" s="43" t="s">
-        <v>1527</v>
-      </c>
-      <c r="AM155" s="43" t="s">
-        <v>1528</v>
       </c>
       <c r="AN155" s="43" t="s">
         <v>94</v>
@@ -22395,19 +22408,19 @@
         <v>45351.535322777781</v>
       </c>
       <c r="I156" s="43" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="J156" s="43" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="K156" s="43" t="s">
         <v>151</v>
       </c>
       <c r="L156" s="48" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="M156" s="43" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="N156" s="43"/>
       <c r="O156" s="43">
@@ -22423,16 +22436,16 @@
         <v>66</v>
       </c>
       <c r="S156" s="43" t="s">
+        <v>1531</v>
+      </c>
+      <c r="T156" s="43" t="s">
+        <v>1532</v>
+      </c>
+      <c r="U156" s="43" t="s">
         <v>1533</v>
       </c>
-      <c r="T156" s="43" t="s">
+      <c r="V156" s="50" t="s">
         <v>1534</v>
-      </c>
-      <c r="U156" s="43" t="s">
-        <v>1535</v>
-      </c>
-      <c r="V156" s="50" t="s">
-        <v>1536</v>
       </c>
       <c r="W156" s="43" t="s">
         <v>47</v>
@@ -22445,7 +22458,7 @@
         <v>47</v>
       </c>
       <c r="AA156" s="43" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="AB156" s="43" t="s">
         <v>54</v>
@@ -22454,7 +22467,7 @@
         <v>47</v>
       </c>
       <c r="AD156" s="43" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="AE156" s="43" t="s">
         <v>89</v>
@@ -22475,10 +22488,10 @@
         <v>47</v>
       </c>
       <c r="AK156" s="43" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AL156" s="43" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AM156" s="43" t="s">
         <v>47</v>
@@ -22503,19 +22516,19 @@
         <v>45352.494980520831</v>
       </c>
       <c r="I157" s="43" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="J157" s="47" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="K157" s="43" t="s">
         <v>43</v>
       </c>
       <c r="L157" s="48" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="M157" s="43" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="N157" s="43"/>
       <c r="O157" s="43">
@@ -22531,26 +22544,26 @@
         <v>47</v>
       </c>
       <c r="S157" s="43" t="s">
+        <v>1542</v>
+      </c>
+      <c r="T157" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="U157" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="V157" s="50" t="s">
+        <v>1543</v>
+      </c>
+      <c r="W157" s="43" t="s">
         <v>1544</v>
       </c>
-      <c r="T157" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="U157" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="V157" s="50" t="s">
-        <v>1545</v>
-      </c>
-      <c r="W157" s="43" t="s">
-        <v>1546</v>
-      </c>
       <c r="X157" s="43" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Y157" s="43"/>
       <c r="Z157" s="50" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="AA157" s="43" t="s">
         <v>47</v>
@@ -22571,22 +22584,22 @@
         <v>47</v>
       </c>
       <c r="AG157" s="43" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="AH157" s="50" t="s">
         <v>56</v>
       </c>
       <c r="AI157" s="43" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="AJ157" s="43" t="s">
         <v>56</v>
       </c>
       <c r="AK157" s="43" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AL157" s="43" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="AM157" s="43" t="s">
         <v>47</v>
@@ -22605,19 +22618,19 @@
         <v>45352.495206608794</v>
       </c>
       <c r="I158" s="43" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="J158" s="43" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="K158" s="43" t="s">
         <v>62</v>
       </c>
       <c r="L158" s="48" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M158" s="43" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="N158" s="43"/>
       <c r="O158" s="43">
@@ -22633,29 +22646,29 @@
         <v>66</v>
       </c>
       <c r="S158" s="43" t="s">
+        <v>1551</v>
+      </c>
+      <c r="T158" s="43" t="s">
+        <v>1552</v>
+      </c>
+      <c r="U158" s="43" t="s">
         <v>1553</v>
       </c>
-      <c r="T158" s="43" t="s">
+      <c r="V158" s="50" t="s">
         <v>1554</v>
       </c>
-      <c r="U158" s="43" t="s">
+      <c r="W158" s="43" t="s">
         <v>1555</v>
-      </c>
-      <c r="V158" s="50" t="s">
-        <v>1556</v>
-      </c>
-      <c r="W158" s="43" t="s">
-        <v>1557</v>
       </c>
       <c r="X158" s="43" t="s">
         <v>47</v>
       </c>
       <c r="Y158" s="43"/>
       <c r="Z158" s="50" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="AA158" s="43" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="AB158" s="43" t="s">
         <v>54</v>
@@ -22664,7 +22677,7 @@
         <v>47</v>
       </c>
       <c r="AD158" s="43" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="AE158" s="43" t="s">
         <v>811</v>
@@ -22673,22 +22686,22 @@
         <v>47</v>
       </c>
       <c r="AG158" s="43" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="AH158" s="50" t="s">
         <v>56</v>
       </c>
       <c r="AI158" s="43" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="AJ158" s="43" t="s">
         <v>56</v>
       </c>
       <c r="AK158" s="43" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AL158" s="43" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AM158" s="43" t="s">
         <v>110</v>
@@ -22709,19 +22722,19 @@
         <v>45352.495223136575</v>
       </c>
       <c r="I159" s="43" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="J159" s="43" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="K159" s="43" t="s">
         <v>62</v>
       </c>
       <c r="L159" s="48" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M159" s="43" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="N159" s="43"/>
       <c r="O159" s="43">
@@ -22737,29 +22750,29 @@
         <v>66</v>
       </c>
       <c r="S159" s="43" t="s">
+        <v>1565</v>
+      </c>
+      <c r="T159" s="43" t="s">
+        <v>1566</v>
+      </c>
+      <c r="U159" s="43" t="s">
         <v>1567</v>
       </c>
-      <c r="T159" s="43" t="s">
+      <c r="V159" s="50" t="s">
         <v>1568</v>
       </c>
-      <c r="U159" s="43" t="s">
+      <c r="W159" s="52" t="s">
         <v>1569</v>
       </c>
-      <c r="V159" s="50" t="s">
-        <v>1570</v>
-      </c>
-      <c r="W159" s="52" t="s">
-        <v>1571</v>
-      </c>
       <c r="X159" s="52" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="Y159" s="43"/>
       <c r="Z159" s="50" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="AA159" s="43" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="AB159" s="43" t="s">
         <v>54</v>
@@ -22810,7 +22823,7 @@
         <v>58</v>
       </c>
       <c r="E160" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="F160" t="s">
         <v>40</v>
@@ -22819,19 +22832,19 @@
         <v>45352.578178657408</v>
       </c>
       <c r="I160" s="43" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="J160" s="47" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="K160" s="43" t="s">
         <v>43</v>
       </c>
       <c r="L160" s="48" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="M160" s="43" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="N160" s="43"/>
       <c r="O160" s="43">
@@ -22847,26 +22860,26 @@
         <v>66</v>
       </c>
       <c r="S160" s="43" t="s">
+        <v>1576</v>
+      </c>
+      <c r="T160" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="U160" s="43" t="s">
+        <v>1577</v>
+      </c>
+      <c r="V160" s="50" t="s">
         <v>1578</v>
       </c>
-      <c r="T160" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="U160" s="43" t="s">
+      <c r="W160" s="43" t="s">
         <v>1579</v>
-      </c>
-      <c r="V160" s="50" t="s">
-        <v>1580</v>
-      </c>
-      <c r="W160" s="43" t="s">
-        <v>1581</v>
       </c>
       <c r="X160" s="43" t="s">
         <v>47</v>
       </c>
       <c r="Y160" s="43"/>
       <c r="Z160" s="50" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="AA160" s="43" t="s">
         <v>47</v>
@@ -22887,22 +22900,22 @@
         <v>47</v>
       </c>
       <c r="AG160" s="43" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="AH160" s="50" t="s">
         <v>305</v>
       </c>
       <c r="AI160" s="43" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="AJ160" s="43" t="s">
         <v>305</v>
       </c>
       <c r="AK160" s="43" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="AL160" s="43" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="AM160" s="43" t="s">
         <v>47</v>
@@ -22912,13 +22925,13 @@
     </row>
     <row r="161" spans="1:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A161" s="53" t="s">
-        <v>39</v>
+        <v>1623</v>
       </c>
       <c r="B161" s="54" t="s">
         <v>58</v>
       </c>
       <c r="E161" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F161" t="s">
         <v>40</v>
@@ -22930,19 +22943,19 @@
         <v>45352.646946458335</v>
       </c>
       <c r="I161" s="43" t="s">
-        <v>1586</v>
-      </c>
-      <c r="J161" s="43" t="s">
-        <v>1587</v>
+        <v>1584</v>
+      </c>
+      <c r="J161" s="47" t="s">
+        <v>1585</v>
       </c>
       <c r="K161" s="43" t="s">
         <v>151</v>
       </c>
       <c r="L161" s="48" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="M161" s="43" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="N161" s="43"/>
       <c r="O161" s="43">
@@ -22958,10 +22971,10 @@
         <v>47</v>
       </c>
       <c r="S161" s="43" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="T161" s="43" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="U161" s="43" t="s">
         <v>47</v>
@@ -22973,14 +22986,14 @@
         <v>47</v>
       </c>
       <c r="X161" s="51" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="Y161" s="43"/>
       <c r="Z161" s="50" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AA161" s="43" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="AB161" s="43" t="s">
         <v>54</v>
@@ -23010,10 +23023,10 @@
         <v>47</v>
       </c>
       <c r="AK161" s="43" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="AL161" s="43" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="AM161" s="43" t="s">
         <v>47</v>
@@ -23229,9 +23242,23 @@
     <hyperlink ref="J118" r:id="rId116" xr:uid="{34CCC7EB-D11F-4C7F-840B-9AE695E943D7}"/>
     <hyperlink ref="J121" r:id="rId117" xr:uid="{1FCD5141-F621-4761-A8A6-4BC28C91BEAB}"/>
     <hyperlink ref="J122" r:id="rId118" xr:uid="{BFD02F92-1632-491F-92FC-F97DF58F1F33}"/>
+    <hyperlink ref="J110" r:id="rId119" xr:uid="{CF61447A-A308-4578-AE42-BE0B99CDF029}"/>
+    <hyperlink ref="J124" r:id="rId120" xr:uid="{4687DDFE-126F-494F-881B-D3E1C11D3D58}"/>
+    <hyperlink ref="J125" r:id="rId121" xr:uid="{BA04D044-E726-478C-B80C-2A52655B7609}"/>
+    <hyperlink ref="J126" r:id="rId122" xr:uid="{8B03D4ED-A5AA-4709-B58C-EFDFDE256259}"/>
+    <hyperlink ref="J129" r:id="rId123" xr:uid="{97A82BD2-77BB-498B-B9D6-04E7658A2434}"/>
+    <hyperlink ref="J133" r:id="rId124" xr:uid="{A2C40657-DDB8-4A2F-97D3-AD6DFA1E44F0}"/>
+    <hyperlink ref="J134" r:id="rId125" xr:uid="{CC6A80B5-0DBD-4C59-8333-D653B99977FF}"/>
+    <hyperlink ref="J136" r:id="rId126" xr:uid="{5644FEF9-C604-4BE8-A99A-8DB8E2DB680D}"/>
+    <hyperlink ref="J137" r:id="rId127" xr:uid="{891FA8D5-4778-45AE-88D3-05435226768B}"/>
+    <hyperlink ref="J138" r:id="rId128" xr:uid="{E0EA016B-0896-4F33-9802-C7105C8588E9}"/>
+    <hyperlink ref="J139" r:id="rId129" xr:uid="{2A354283-102E-4937-AE51-389A1CD9BA9F}"/>
+    <hyperlink ref="J146" r:id="rId130" xr:uid="{BEC701AE-C0EB-449C-AAF0-171E8725FF34}"/>
+    <hyperlink ref="J152" r:id="rId131" xr:uid="{C4D82CC9-9FE5-4E95-8FD0-657DEB278F61}"/>
+    <hyperlink ref="J161" r:id="rId132" xr:uid="{496DBE5A-4A41-4365-A77B-5075905F9E53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId119"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId133"/>
 </worksheet>
 </file>
 
@@ -23251,10 +23278,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="56" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B3" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -23275,7 +23302,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -23339,7 +23366,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -23355,7 +23382,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="43" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -23363,7 +23390,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="43" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -23371,7 +23398,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="43" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -23403,7 +23430,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="43" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -23411,7 +23438,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="43" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -23419,7 +23446,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="43" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -23459,7 +23486,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="43" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -23467,7 +23494,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="43" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -23483,7 +23510,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="43" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -23523,7 +23550,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="43" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -23563,12 +23590,12 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="43" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="43" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B43">
         <v>91</v>
@@ -23931,17 +23958,17 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -23951,7 +23978,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -23961,7 +23988,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -23971,7 +23998,7 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -23986,27 +24013,27 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -24016,17 +24043,17 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="43" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -24041,12 +24068,12 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
   </sheetData>
